--- a/総合テスト/総合テスト仕様書.xlsx
+++ b/総合テスト/総合テスト仕様書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikumu.hiramoto\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikumu.hiramoto\Downloads\Jobs\simplezakka\総合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73F68347-337F-4095-B37D-4647CF368084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00C028D7-02D0-4C04-B0C3-40B19BDF4B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A9687DEE-D9AA-413C-81E3-B4BFBEDA585F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="286">
   <si>
     <t>シンプル雑貨オンライン総合テスト仕様書</t>
   </si>
@@ -76,7 +76,31 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
       <t>作成者</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>: Jobs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>前提</t>
     </r>
     <r>
       <rPr>
@@ -88,423 +112,389 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: ◯◯</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>前提</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>A　アロマ</t>
+  </si>
+  <si>
+    <t>・テスト対象アプリケーションがテスト環境にデプロイされていること。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B　モダンデスクライト</t>
+  </si>
+  <si>
+    <t>・テスト用Webブラウザ (例: Google Chrome 最新版) が利用可能であること。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>・初期データとして、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <t>・テスト対象アプリケーションがテスト環境にデプロイされていること。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・テスト用Webブラウザ (例: Google Chrome 最新版) が利用可能であること。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>・初期データとして、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+      <t>DataLoader.java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
         <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>DataLoader.java</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
+      <t> により以下の商品が登録されていること。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アロマディフューザー (productId: 1, name: アロマディフューザー, price: 1000, stock: 10)</t>
+  </si>
+  <si>
+    <t>モダンデスクライト (productId: 2, name: モダンデスクライト, price: 2000, stock: 5)</t>
+  </si>
+  <si>
+    <t>・テスト開始時、カートは空の状態であること（必要に応じてテスト前にクリアする）。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テストケース一覧</t>
+  </si>
+  <si>
+    <t>1. 商品表示機能</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>テスト対象</t>
+  </si>
+  <si>
+    <t>テスト種別</t>
+  </si>
+  <si>
+    <t>目的/観点</t>
+  </si>
+  <si>
+    <t>前提条件</t>
+  </si>
+  <si>
+    <t>操作手順</t>
+  </si>
+  <si>
+    <t>期待結果</t>
+  </si>
+  <si>
+    <t>ST-P-001</t>
+  </si>
+  <si>
+    <t>商品一覧画面</t>
+  </si>
+  <si>
+    <t>機能</t>
+  </si>
+  <si>
+    <t>アプリケーション起動時に商品一覧が正しく表示されるか</t>
+  </si>
+  <si>
+    <t>アプリケーション起動直後</t>
+  </si>
+  <si>
+    <r>
+      <t>1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t> により以下の商品が登録されていること。</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品A (productId: 1, name: 商品A, price: 1000, stock: 10)</t>
-  </si>
-  <si>
-    <t>商品B (productId: 2, name: 商品B, price: 2000, stock: 5)</t>
-  </si>
-  <si>
-    <t>・テスト開始時、カートは空の状態であること（必要に応じてテスト前にクリアする）。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>テストケース一覧</t>
-  </si>
-  <si>
-    <t>1. 商品表示機能</t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>テスト対象</t>
-  </si>
-  <si>
-    <t>テスト種別</t>
-  </si>
-  <si>
-    <t>目的/観点</t>
-  </si>
-  <si>
-    <t>前提条件</t>
-  </si>
-  <si>
-    <t>操作手順</t>
-  </si>
-  <si>
-    <t>期待結果</t>
-  </si>
-  <si>
-    <t>ST-P-001</t>
-  </si>
-  <si>
-    <t>商品一覧画面</t>
-  </si>
-  <si>
-    <t>機能</t>
-  </si>
-  <si>
-    <t>アプリケーション起動時に商品一覧が正しく表示されるか</t>
-  </si>
-  <si>
-    <t>アプリケーション起動直後</t>
-  </si>
-  <si>
-    <r>
-      <t>1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+      <t>index.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
         <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>index.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
+      <t> にアクセスする。</t>
+    </r>
+  </si>
+  <si>
+    <t>1. アロマディフューザーとモダンデスクライトのカードが表示されること。
+2. 各カードに商品名、価格、画像が表示されていること。
+3. 各カードに「詳細を見る」ボタンが表示されていること。</t>
+  </si>
+  <si>
+    <t>ST-P-002</t>
+  </si>
+  <si>
+    <t>ユーザビリティ</t>
+  </si>
+  <si>
+    <t>商品カードのデザインが見やすいか、情報が過不足ないか</t>
+  </si>
+  <si>
+    <t>ST-P-001と同じ</t>
+  </si>
+  <si>
+    <r>
+      <t>1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t> にアクセスする。</t>
-    </r>
-  </si>
-  <si>
-    <t>1. 商品Aと商品Bのカードが表示されること。
-2. 各カードに商品名、価格、画像が表示されていること。
-3. 各カードに「詳細を見る」ボタンが表示されていること。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ST-P-002</t>
-  </si>
-  <si>
-    <t>ユーザビリティ</t>
-  </si>
-  <si>
-    <t>商品カードのデザインが見やすいか、情報が過不足ないか</t>
-  </si>
-  <si>
-    <t>ST-P-001と同じ</t>
-  </si>
-  <si>
-    <r>
-      <t>1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+      <t>index.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
         <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>index.html</t>
-    </r>
+      <t> の商品一覧画面を目視で確認する。</t>
+    </r>
+  </si>
+  <si>
+    <t>1. 各商品カードのレイアウトが整っており、情報（画像、名前、価格）が認識しやすいこと。
+2. ボタンの文言が「詳細を見る」であり、意味が分かりやすいこと。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ST-P-003</t>
+  </si>
+  <si>
+    <t>キーワード検索時に該当する商品一覧が正しく表示されるか</t>
+  </si>
+  <si>
+    <t>商品一覧が初期時(全量表示、新着順)で表示されている</t>
+  </si>
+  <si>
+    <t>検索ボックスにキーワード入力後、検索ボタンをクリックする。</t>
+  </si>
+  <si>
+    <t>キーワード検索で該当する商品が表示される</t>
+  </si>
+  <si>
+    <t>ST-P-004</t>
+  </si>
+  <si>
+    <t>カテゴリ検索時に該当する商品一覧が表示されるか</t>
+  </si>
+  <si>
+    <t>カテゴリのプルダウンからカテゴリ名をクリックする</t>
+  </si>
+  <si>
+    <t>カテゴリ検索で該当する商品が表示される</t>
+  </si>
+  <si>
+    <t>ST-P-005</t>
+  </si>
+  <si>
+    <t>並び替えボタンをクリックすることで、商品の並び順が変更される。</t>
+  </si>
+  <si>
+    <t>並び替えのプルダウンから新着順をクリックする</t>
+  </si>
+  <si>
+    <t>並び替え(New)を押下したとき、その通りに並び替えて表示される</t>
+  </si>
+  <si>
+    <t>ST-P-006</t>
+  </si>
+  <si>
+    <t>並び替えのプルダウンから価格が安い順をクリックする</t>
+  </si>
+  <si>
+    <t>並び替え(降下)押下したとき、その通りに並び替えて表示される</t>
+  </si>
+  <si>
+    <t>ST-P-007</t>
+  </si>
+  <si>
+    <t>並び替えのプルダウンから価格が高い順をクリックする</t>
+  </si>
+  <si>
+    <t>ST-P-008</t>
+  </si>
+  <si>
+    <t>並び替えのプルダウンから価格が商品名順をクリックする</t>
+  </si>
+  <si>
+    <t>ST-P-009</t>
+  </si>
+  <si>
+    <t>カテゴリ検索とキーワード検索時に該当する商品一覧が正しく表示されるか</t>
+  </si>
+  <si>
+    <t>カテゴリを選択した後にキーワードで検索ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>キーワードとカテゴリ検索で該当する商品が表示される</t>
+  </si>
+  <si>
+    <t>ST-P-010</t>
+  </si>
+  <si>
+    <t>キーワード検索時に該当する商品一覧が価格が安い順で表示されるか</t>
+  </si>
+  <si>
+    <t>検索ボックスにキーワードを入力後に検索ボタンをクリックし、並べ替えを価格が安い順にする</t>
+  </si>
+  <si>
+    <t>キーワード検索に該当する商品が表示された状態で並び替え(価格が安い順)ができている</t>
+  </si>
+  <si>
+    <t>ST-P-011</t>
+  </si>
+  <si>
+    <t>カテゴリ検索に該当する商品一覧が価格が安い順で表示されるか</t>
+  </si>
+  <si>
+    <t>カテゴリを選択した後に並び替えのプルダウンから価格が安い順をクリックする</t>
+  </si>
+  <si>
+    <t>カテゴリ検索に該当する商品が表示された状態で並び替え(価格が安い順)ができている</t>
+  </si>
+  <si>
+    <t>ST-P-012</t>
+  </si>
+  <si>
+    <t>キーワード検索とカテゴリ検索時に該当する商品一覧が価格が安い順で表示されるか</t>
+  </si>
+  <si>
+    <t>検索ボックスにキーワード入力、カテゴリをプルダウンから選択
+した後、並び替えのプルダウンから価格が安い順をクリックする</t>
+  </si>
+  <si>
+    <t>キーワードとカテゴリ検索で該当する商品が表示された状態で並び替え
+(価格が安い順)ができている</t>
+  </si>
+  <si>
+    <t>ST-P-013</t>
+  </si>
+  <si>
+    <t>商品詳細表示</t>
+  </si>
+  <si>
+    <t>「詳細を見る」ボタンから商品詳細がモーダル表示されるか</t>
+  </si>
+  <si>
+    <t>1. アロマディフューザーの「詳細を見る」ボタンをクリックする。</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF333333"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>1. 商品詳細モーダル (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>productModal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>) が表示されること。
+2. モーダル内にアロマディフューザーの名前、価格、説明、在庫数、画像が表示されていること。
+3. 数量入力欄と「カートに入れる」ボタンが表示されていること。</t>
+    </r>
+  </si>
+  <si>
+    <t>ST-P-014</t>
+  </si>
+  <si>
+    <t>存在する別の商品の詳細が表示できるか</t>
+  </si>
+  <si>
+    <t>1. モダンデスクライトの「詳細を見る」ボタンをクリックする。</t>
+  </si>
+  <si>
+    <t>1. 商品詳細モーダルが表示されること。
+2. モーダル内にモダンデスクライトの情報が表示されていること。</t>
+  </si>
+  <si>
+    <t>ST-P-015</t>
+  </si>
+  <si>
+    <t>存在しない商品IDでアクセスした場合 (APIレベル)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <r>
+      <t>1. ブラウザ等で </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t> の商品一覧画面を目視で確認する。</t>
-    </r>
-  </si>
-  <si>
-    <t>1. 各商品カードのレイアウトが整っており、情報（画像、名前、価格）が認識しやすいこと。
-2. ボタンの文言が「詳細を見る」であり、意味が分かりやすいこと。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ST-P-003</t>
-  </si>
-  <si>
-    <t>キーワード検索時に該当する商品一覧が正しく表示されるか</t>
-  </si>
-  <si>
-    <t>商品一覧が表示されている</t>
-  </si>
-  <si>
-    <t>検索ボックスにキーワード入力後、検索ボタンをクリックする。</t>
-  </si>
-  <si>
-    <t>キーワード検索で該当する商品が表示される</t>
-  </si>
-  <si>
-    <t>ST-P-004</t>
-  </si>
-  <si>
-    <t>カテゴリ検索時に該当する商品一覧が表示されるか</t>
-  </si>
-  <si>
-    <t>カテゴリのプルダウンからカテゴリ名をクリックする</t>
-  </si>
-  <si>
-    <t>カテゴリ検索で該当する商品が表示される</t>
-  </si>
-  <si>
-    <t>ST-P-005</t>
-  </si>
-  <si>
-    <t>並び替えボタンをクリックすることで、商品の並び順が変更される。</t>
-  </si>
-  <si>
-    <t>並び替えのプルダウンから新着順をクリックする</t>
-  </si>
-  <si>
-    <t>並び替え(New)を押下したとき、その通りに並び替えて表示される</t>
-  </si>
-  <si>
-    <t>ST-P-006</t>
-  </si>
-  <si>
-    <t>並び替えのプルダウンから価格が高い順をクリックする</t>
-  </si>
-  <si>
-    <t>並び替え(降下)押下したとき、その通りに並び替えて表示される</t>
-  </si>
-  <si>
-    <t>ST-P-007</t>
-  </si>
-  <si>
-    <t>カテゴリ検索とキーワード検索時に該当する商品一覧が正しく表示されるか</t>
-  </si>
-  <si>
-    <t>カテゴリを選択した後にキーワードで検索ボタンをクリックする</t>
-  </si>
-  <si>
-    <t>キーワードとカテゴリ検索で該当する商品が表示される</t>
-  </si>
-  <si>
-    <t>ST-P-008</t>
-  </si>
-  <si>
-    <t>カテゴリ検索に該当する商品一覧が新着順で表示されるか</t>
-  </si>
-  <si>
-    <t>カテゴリを選択した後に並び替えのプルダウンから新着順をクリックする</t>
-  </si>
-  <si>
-    <t>カテゴリ検索に該当する商品が表示された状態で並び替え(New)ができている</t>
-  </si>
-  <si>
-    <t>ST-P-009</t>
-  </si>
-  <si>
-    <t>カテゴリ検索に該当する商品一覧が価格が高い順で表示されるか</t>
-  </si>
-  <si>
-    <t>カテゴリを選択した後に並び替えのプルダウンから価格が高い順をクリックする</t>
-  </si>
-  <si>
-    <t>カテゴリ検索に該当する商品が表示された状態で並び替え(降下)ができている</t>
-  </si>
-  <si>
-    <t>ST-P-010</t>
-  </si>
-  <si>
-    <t>キーワード検索時に該当する商品一覧が新着順(New)で表示されるか</t>
-  </si>
-  <si>
-    <t>検索ボックスにキーワードを入力後に検索ボタンをクリックし、並べ替えを新着順にする</t>
-  </si>
-  <si>
-    <t>キーワード検索に該当する商品が表示された状態で並び替え(New)ができている</t>
-  </si>
-  <si>
-    <t>ST-P-011</t>
-  </si>
-  <si>
-    <t>キーワード検索時に該当する商品一覧が価格が高い順(降下)で表示されるか</t>
-  </si>
-  <si>
-    <t>検索ボックスにキーワードを入力後に検索ボタンをクリックし、並べ替えを価格が高い順にする</t>
-  </si>
-  <si>
-    <t>キーワード検索に該当する商品が表示された状態で並び替え(降下)ができている</t>
-  </si>
-  <si>
-    <t>ST-P-012</t>
-  </si>
-  <si>
-    <t>キーワード検索とカテゴリ検索時に該当する商品一覧が新着順(New)で表示されるか</t>
-  </si>
-  <si>
-    <t>検索ボックスにキーワード入力、カテゴリをプルダウンから選択
-した後、並び替えのプルダウンから新着順をクリックする</t>
-  </si>
-  <si>
-    <t>キーワードとカテゴリ検索で該当する商品が表示された状態で並び替え
-(New)ができている</t>
-  </si>
-  <si>
-    <t>ST-P-013</t>
-  </si>
-  <si>
-    <t>キーワード検索とカテゴリ検索時に該当する商品一覧が価格が高い順(降下)で表示されるか</t>
-  </si>
-  <si>
-    <t>検索ボックスにキーワード入力、カテゴリをプルダウンから選択した後、並び替えのプルダウンから価格が高い順をクリックする</t>
-  </si>
-  <si>
-    <t>キーワードとカテゴリ検索で該当する商品が表示された状態で並び替え
-(降下)ができている</t>
-  </si>
-  <si>
-    <t>ST-P-014</t>
-  </si>
-  <si>
-    <t>商品詳細表示</t>
-  </si>
-  <si>
-    <t>「詳細を見る」ボタンから商品詳細がモーダル表示されるか</t>
-  </si>
-  <si>
-    <t>1. 商品Aの「詳細を見る」ボタンをクリックする。</t>
-  </si>
-  <si>
-    <r>
-      <t>1. 商品詳細モーダル (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+      <t>/api/products/99</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
         <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>productModal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) が表示されること。
-2. モーダル内に商品Aの名前、価格、説明、在庫数、画像が表示されていること。
-3. 数量入力欄と「カートに入れる」ボタンが表示されていること。</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ST-P-015</t>
-  </si>
-  <si>
-    <t>存在する別の商品の詳細が表示できるか</t>
-  </si>
-  <si>
-    <t>1. 商品Bの「詳細を見る」ボタンをクリックする。</t>
-  </si>
-  <si>
-    <t>1. 商品詳細モーダルが表示されること。
-2. モーダル内に商品Bの情報が表示されていること。</t>
-    <phoneticPr fontId="2"/>
+      <t> (存在しないID) にGETリクエストを送る。</t>
+    </r>
+  </si>
+  <si>
+    <t>1. HTTPステータスコード 404 (Not Found) が返ること。</t>
   </si>
   <si>
     <t>ST-P-016</t>
-  </si>
-  <si>
-    <t>存在しない商品IDでアクセスした場合 (APIレベル)</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <r>
-      <t>1. ブラウザ等で </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/api/products/99</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> (存在しないID) にGETリクエストを送る。</t>
-    </r>
-  </si>
-  <si>
-    <t>1. HTTPステータスコード 404 (Not Found) が返ること。</t>
-  </si>
-  <si>
-    <t>ST-P-017</t>
   </si>
   <si>
     <t>商品詳細モーダルの情報が見やすく、操作しやすいか</t>
@@ -536,7 +526,7 @@
     <t>商品詳細から商品をカートに追加できるか (1個)</t>
   </si>
   <si>
-    <t>商品Aの詳細モーダルが表示されている</t>
+    <t>アロマディフューザーの詳細モーダルが表示されている</t>
   </si>
   <si>
     <t>1. 数量が「1」であることを確認する。
@@ -556,7 +546,7 @@
     <t>商品詳細から商品をカートに追加できるか (複数個)</t>
   </si>
   <si>
-    <t>商品Bの詳細モーダルが表示されている</t>
+    <t>モダンデスクライトの詳細モーダルが表示されている</t>
   </si>
   <si>
     <t>1. 数量入力欄に「3」を入力する。
@@ -576,12 +566,11 @@
     <t>同じ商品を複数回カートに追加した場合、数量が加算されるか</t>
   </si>
   <si>
-    <t>商品Aを1個カートに追加済み (カートバッジ=1)</t>
-  </si>
-  <si>
-    <t>1. 商品Aの詳細モーダルを表示する。
+    <t>アロマディフューザーを1個カートに追加済み (カートバッジ=1)</t>
+  </si>
+  <si>
+    <t>1. アロマディフューザーの詳細モーダルを表示する。
 2. 数量「2」で「カートに入れる」ボタンをクリックする。</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1. 「商品をカートに追加しました」アラートが表示されること。
@@ -593,170 +582,71 @@
     <t>ST-C-004</t>
   </si>
   <si>
-    <t>在庫数を超える数量をカートに追加しようとした場合 (JSレベル)</t>
-  </si>
-  <si>
-    <t>商品B(在庫5)の詳細モーダル表示</t>
-  </si>
-  <si>
-    <t>1. 数量入力欄に「6」を入力しようとする (または入力してボタンを押す)。</t>
-  </si>
-  <si>
-    <r>
-      <t>1. HTMLの</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+    <t>カート表示</t>
+  </si>
+  <si>
+    <t>カートアイコンクリックでカートモーダルが表示され、内容が正しいか (商品1種)</t>
+  </si>
+  <si>
+    <t>アロマディフューザーを3個カートに追加済み (バッジ=3)</t>
+  </si>
+  <si>
+    <t>1. 画面右上のカートアイコンをクリックする。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
         <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>input</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
+      </rPr>
+      <t>1. カートモーダル (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>要素の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+      </rPr>
+      <t>cartModal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
         <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>max</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>属性により、6以上の入力ができない、または「カートに入れる」ボタン押下時にブラウザレベルのエラーが表示される等の制御が期待される (現</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>main.js</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ではJSバリデーションなし)。 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>または</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、サーバー側でエラーとなりカートに追加されないこと。</t>
-    </r>
-  </si>
-  <si>
-    <t>ST-C-005</t>
-  </si>
-  <si>
-    <t>カート表示</t>
-  </si>
-  <si>
-    <t>カートアイコンクリックでカートモーダルが表示され、内容が正しいか (商品1種)</t>
-  </si>
-  <si>
-    <t>商品Aを3個カートに追加済み (バッジ=3)</t>
-  </si>
-  <si>
-    <t>1. 画面右上のカートアイコンをクリックする。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="游ゴシック"/>
-      </rPr>
-      <t>1. カートモーダル (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-      </rPr>
-      <t>cartModal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="游ゴシック"/>
       </rPr>
       <t>) が表示されること。
-2. モーダル内に商品Aの情報（名前、単価、数量=3、小計=12600）が表示されること。
+2. モーダル内にアロマディフューザーの情報（名前、単価、数量=3、小計=12600）が表示されること。
 3. 合計金額が「12600」円と表示されること。
 4. 「注文手続きへ」ボタンが有効であること。</t>
     </r>
   </si>
   <si>
+    <t>ST-C-005</t>
+  </si>
+  <si>
+    <t>カートモーダルに複数種類の商品が正しく表示されるか</t>
+  </si>
+  <si>
+    <t>アロマディフューザー x3, モダンデスクライト x1 をカートに追加済み (バッジ=4)</t>
+  </si>
+  <si>
+    <t>1. カートアイコンをクリックする。</t>
+  </si>
+  <si>
+    <t>1. カートモーダルが表示されること。
+2. アロマディフューザー (数量3, 小計12600) とモダンデスクライト (数量1, 小計4500) が表示されること。
+3. 合計金額が「17100」円と表示されること。</t>
+  </si>
+  <si>
     <t>ST-C-006</t>
-  </si>
-  <si>
-    <t>カートモーダルに複数種類の商品が正しく表示されるか</t>
-  </si>
-  <si>
-    <t>商品A x3, 商品B x1 をカートに追加済み (バッジ=4)</t>
-  </si>
-  <si>
-    <t>1. カートアイコンをクリックする。</t>
-  </si>
-  <si>
-    <t>1. カートモーダルが表示されること。
-2. 商品A (数量3, 小計12600) と商品B (数量1, 小計4500) が表示されること。
-3. 合計金額が「17100」円と表示されること。</t>
-  </si>
-  <si>
-    <t>ST-C-007</t>
   </si>
   <si>
     <t>カートが空の状態でカートモーダルを表示した場合</t>
@@ -772,7 +662,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ST-C-008</t>
+    <t>ST-C-007</t>
   </si>
   <si>
     <t>カート数量変更</t>
@@ -781,191 +671,96 @@
     <t>カートモーダルで商品の数量を変更できるか (増加)</t>
   </si>
   <si>
-    <t>ST-C-006 の状態</t>
+    <t>ST-C-005 の状態</t>
   </si>
   <si>
     <t>1. カートモーダルを表示する。
-2. 商品Aの数量入力欄の値を「3」から「4」に変更する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. 商品Aの数量が「4」、小計が「16800」円に更新されること。
+2. アロマディフューザーの数量入力欄の値を「3」から「4」に変更する。</t>
+  </si>
+  <si>
+    <t>1. アロマディフューザーの数量が「4」、小計が「16800」円に更新されること。
 2. 合計金額が「21300」円 (16800+4500) に更新されること。
 3. カートアイコンのバッジが「5」 (4+1) に更新されること。</t>
   </si>
   <si>
+    <t>ST-C-008</t>
+  </si>
+  <si>
+    <t>カートモーダルで商品の数量を変更できるか (減少)</t>
+  </si>
+  <si>
+    <t>ST-C-007 の状態</t>
+  </si>
+  <si>
+    <t>1. カートモーダルを表示する。
+2. アロマディフューザーの数量入力欄の値を「4」から「1」に変更する。</t>
+  </si>
+  <si>
+    <t>1. アロマディフューザーの数量が「1」、小計が「4200」円に更新されること。
+2. 合計金額が「8700」円 (4200+4500) に更新されること。
+3. カートアイコンのバッジが「2」 (1+1) に更新されること。</t>
+  </si>
+  <si>
     <t>ST-C-009</t>
   </si>
   <si>
-    <t>カートモーダルで商品の数量を変更できるか (減少)</t>
-  </si>
-  <si>
-    <t>ST-C-008 の状態</t>
+    <t>カートモーダルで数量を0や負数に変更しようとした場合 (JS/API)</t>
+  </si>
+  <si>
+    <t>アロマディフューザーがカートに1個入っている</t>
+  </si>
+  <si>
+    <t>1. カートモーダルを表示。
+2. アロマディフューザーの数量を「0」に変更する。
+3. (可能なら)アロマディフューザーの数量を「-1」に変更する。</t>
+  </si>
+  <si>
+    <t>画面にエラーメッセージが表示されるか、元の値に戻ること (現在の実装ではサーバーエラーは捕捉しない)。</t>
+  </si>
+  <si>
+    <t>ST-C-010</t>
+  </si>
+  <si>
+    <t>カート商品削除</t>
+  </si>
+  <si>
+    <t>カートモーダルから商品を削除できるか</t>
+  </si>
+  <si>
+    <t>ST-C-005の状態</t>
   </si>
   <si>
     <t>1. カートモーダルを表示する。
-2. 商品Aの数量入力欄の値を「4」から「1」に変更する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. 商品Aの数量が「1」、小計が「1000」円に更新されること。
-2. 合計金額が「3000」円 (1000+2000) に更新されること。
-3. カートアイコンのバッジが「2」 (1+1) に更新されること。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ST-C-010</t>
-  </si>
-  <si>
-    <t>カートモーダルで数量を在庫以上に変更しようとした場合 (APIレベル)</t>
-  </si>
-  <si>
-    <t>商品B(在庫5)がカートに1個入っている</t>
-  </si>
-  <si>
-    <t>1. カートモーダルを表示。
-2. 商品Bの数量を「6」に変更する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>1. API (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PUT /api/cart/items/2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) 呼び出しでエラーが発生または無視され、カート内の数量は更新されないことが期待される (サーバー側での在庫チェック実装に依存)。
-2. 画面上の表示が元に戻る、またはエラーメッセージが表示される (現在の実装では特にエラー処理なし)。</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ST-C-011</t>
-  </si>
-  <si>
-    <t>カートモーダルで数量を0や負数に変更しようとした場合 (JS/API)</t>
-  </si>
-  <si>
-    <t>商品Aがカートに1個入っている</t>
-  </si>
-  <si>
-    <t>1. カートモーダルを表示。
-2. 商品Aの数量を「0」に変更する。
-3. (可能なら)商品Aの数量を「-1」に変更する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>1. JSレベルで入力が制限されるか(HTMLの</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>min="1"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>による)、API呼び出し時にバリデーションエラー(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@Min(1)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)となり、数量が更新されないこと。
-2. 画面にエラーメッセージが表示されるか、元の値に戻ること (現在の実装ではサーバーエラーは捕捉しない)。</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ST-C-012</t>
-  </si>
-  <si>
-    <t>カート商品削除</t>
-  </si>
-  <si>
-    <t>カートモーダルから商品を削除できるか</t>
-  </si>
-  <si>
-    <t>1. カートモーダルを表示する。
-2. 商品Aの行にある「削除」ボタンをクリックする。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. カートモーダルから商品Aの行が削除されること。
-2. 商品Bのみが表示されていること。
+2. アロマディフューザーの行にある「削除」ボタンをクリックする。</t>
+  </si>
+  <si>
+    <t>1. カートモーダルからアロマディフューザーの行が削除されること。
+2. モダンデスクライトのみが表示されていること。
 3. 合計金額が「4500」円に更新されること。
 4. カートアイコンのバッジが「1」に更新されること。</t>
   </si>
   <si>
-    <t>ST-C-013</t>
+    <t>ST-C-011</t>
   </si>
   <si>
     <t>カート内の最後の商品を削除した場合</t>
   </si>
   <si>
-    <t>商品Bのみカートに入っている (バッジ=1)</t>
+    <t>モダンデスクライトのみカートに入っている (バッジ=1)</t>
   </si>
   <si>
     <t>1. カートモーダルを表示する。
-2. 商品Bの行にある「削除」ボタンをクリックする。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. カートモーダルから商品Bの行が削除されること。
+2. モダンデスクライトの行にある「削除」ボタンをクリックする。</t>
+  </si>
+  <si>
+    <t>1. カートモーダルからモダンデスクライトの行が削除されること。
 2. 「カートは空です」メッセージが表示されること。
 3. 合計金額が「0」または非表示になること。
 4. カートアイコンのバッジが「0」に更新されること。
 5. 「注文手続きへ」ボタンが無効になること。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ST-C-014</t>
+  </si>
+  <si>
+    <t>ST-C-012</t>
   </si>
   <si>
     <t>カートモーダルの表示内容や操作性が分かりやすいか</t>
@@ -981,7 +776,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ST-C-015</t>
+    <t>ST-C-013</t>
   </si>
   <si>
     <t>カート機能</t>
@@ -1084,17 +879,15 @@
     <t>カートモーダルから注文手続きへ進めるか</t>
   </si>
   <si>
-    <t>商品A x1, 商品B x1 がカートに入っている (バッジ=2)</t>
+    <t>アロマディフューザー x1, モダンデスクライト x1 がカートに入っている (バッジ=2)</t>
   </si>
   <si>
     <t>1. カートモーダルを表示する。
 2. 「注文手続きへ」ボタンをクリックする。</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1. カートモーダルが閉じること。
 2. 顧客情報入力モーダル (checkoutModal) が表示されること。</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ST-O-002</t>
@@ -1138,7 +931,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF333333"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="游ゴシック"/>
         <scheme val="minor"/>
       </rPr>
       <t>1. 注文API (</t>
@@ -1147,7 +940,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="游ゴシック"/>
         <scheme val="minor"/>
       </rPr>
       <t>POST /api/orders</t>
@@ -1156,7 +949,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF333333"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="游ゴシック"/>
         <scheme val="minor"/>
       </rPr>
       <t>) が送信されない、または送信されてもサーバー側バリデーション (</t>
@@ -1165,7 +958,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="游ゴシック"/>
         <scheme val="minor"/>
       </rPr>
       <t>@NotBlank</t>
@@ -1174,7 +967,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF333333"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="游ゴシック"/>
         <scheme val="minor"/>
       </rPr>
       <t>) により 400 Bad Request が返ること。
@@ -1279,7 +1072,7 @@
     <t>有効な顧客情報で注文が正常に完了するか</t>
   </si>
   <si>
-    <t>ST-O-001 の後、ST-O-002 の状態。カートには商品A x1, 商品B x1。</t>
+    <t>ST-O-001 の後、ST-O-002 の状態。カートにはアロマディフューザー x1, モダンデスクライト x1。</t>
   </si>
   <si>
     <t>1. 「注文を確定する」ボタンをクリックする。</t>
@@ -1290,29 +1083,25 @@
 3. 完了モーダルに「ご注文ありがとうございます」等のメッセージと、注文番号が表示されること。
 4. カートアイコンのバッジが「0」になること。
 5. DBのordersテーブルに注文情報が、order_detailsテーブルに対応する明細が保存されていること。
-6. DBのproductsテーブルで商品Aと商品Bの在庫がそれぞれ1減っていること。</t>
-    <phoneticPr fontId="2"/>
+6. DBのproductsテーブルでアロマディフューザーとモダンデスクライトの在庫がそれぞれ1減っていること。</t>
   </si>
   <si>
     <t>ST-O-009</t>
   </si>
   <si>
-    <t>在庫が不足している商品を注文しようとした場合</t>
-  </si>
-  <si>
-    <t>商品Bの在庫を事前に0にする。カートに商品A x1, 商品B x1。</t>
-  </si>
-  <si>
-    <t>1. ST-O-001, ST-O-002 の手順を行う。
-2. 「注文を確定する」ボタンをクリックする。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. 注文API (POST /api/orders) 呼び出しでサーバー側エラー (例: 500 Internal Server Error または適切なエラーコード) が発生すること (OrderService の在庫チェックによる例外)。
+    <t>在庫以上の商品を注文した際にエラーがでるか。</t>
+  </si>
+  <si>
+    <t>カートに在庫以上の数量の商品が入っている</t>
+  </si>
+  <si>
+    <t>1. 注文確定ボタンをクリックする。</t>
+  </si>
+  <si>
+    <t>サーバー側エラー (例: 500 Internal Server Error または適切なエラーコード) が発生すること (OrderService の在庫チェックによる例外)。
 2. 画面上にエラーメッセージが表示されること (現在のmain.jsでは汎用的なエラー表示)。
 3. DBのordersやproductsテーブルに変化がないこと (トランザクションがロールバックされる)。
 4. カートの中身やバッジは変化しないこと。</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ST-O-010</t>
@@ -1325,6 +1114,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="游ゴシック"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1. (可能であれば) </t>
     </r>
     <r>
@@ -1332,8 +1127,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>OrderService.placeOrder</t>
@@ -1343,14 +1136,11 @@
         <sz val="11"/>
         <color rgb="FF333333"/>
         <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t> 内で意図的に例外が発生するように一時的にコード変更 or モック。
 2. 「注文を確定する」ボタンをクリックする。</t>
     </r>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1. サーバーエラー (500 Internal Server Error) が返ること。
@@ -1363,69 +1153,6 @@
     <t>ST-O-011</t>
   </si>
   <si>
-    <t>カートが空の状態で注文APIを直接呼び出した場合 (APIレベル)</t>
-  </si>
-  <si>
-    <t>カートが空</t>
-  </si>
-  <si>
-    <r>
-      <t>1. ブラウザ開発ツール等で、カートが空の状態で </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>POST /api/orders</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> に有効な顧客情報を含むリクエストを送信する。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1. サーバー側 (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OrderController</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) でカートが空であることが検知され、400 Bad Request が返ること。</t>
-    </r>
-  </si>
-  <si>
-    <t>ST-O-012</t>
-  </si>
-  <si>
     <t>顧客情報入力フォームの各項目が分かりやすいか</t>
   </si>
   <si>
@@ -1438,7 +1165,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ST-O-013</t>
+    <t>ST-O-012</t>
   </si>
   <si>
     <t>注文完了</t>
@@ -1478,25 +1205,59 @@
   </si>
   <si>
     <t>1. index.html を表示。
-2. 商品Aの詳細を表示し、数量2でカートに追加。
-3. 商品Bの詳細を表示し、数量1でカートに追加。
-4. カートモーダルを表示し、内容（商品A x2, 商品B x1, 合計4000円）を確認。
+2. アロマディフューザーの詳細を表示し、数量2でカートに追加。
+3. モダンデスクライトの詳細を表示し、数量1でカートに追加。
+4. カートモーダルを表示し、内容（アロマディフューザー x2, モダンデスクライト x1, 合計12900円）を確認。
 5. 「注文手続きへ」をクリック。
 6. 有効な顧客情報を入力。
 7. 「注文を確定する」をクリック。</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1. 各ステップで画面表示やカートバッジが期待通りに更新されること。
 2. カートモーダルの内容が正しいこと。
 3. 注文が正常に完了し、完了モーダルが表示され注文番号が確認できること。
-4. テスト後にカートが空になり、商品Aの在庫が2、商品Bの在庫が1減っていること。</t>
-    <phoneticPr fontId="2"/>
+4. テスト後にカートが空になり、アロマディフューザーの在庫が2、モダンデスクライトの在庫が1減っていること。</t>
   </si>
   <si>
     <t>ST-SC-002</t>
   </si>
   <si>
+    <t>ユーザーがキーワード検索をして出てきた商品をカートに入れ、注文を完了するまでの一連の流れが正常に行えるか</t>
+  </si>
+  <si>
+    <t>1. index.html を表示。
+2. 「ア」とキーワード検索ボックスに入れて検索
+3. 表示された商品の中からアロマディフューザーの詳細を表示し、数量2でカートに追加
+4. カートモーダルを表示し、内容（アロマディフューザー x2, 合計8400円）を確認。
+5. 「注文手続きへ」をクリック。
+6. 有効な顧客情報を入力。
+7. 「注文を確定する」をクリック。</t>
+  </si>
+  <si>
+    <t>1. 各ステップで画面表示やカートバッジが期待通りに更新されること。
+2. カートモーダルの内容が正しいこと。
+3. 注文が正常に完了し、完了モーダルが表示され注文番号が確認できること。
+4. テスト後にカートが空になり、アロマディフューザーの在庫が2減っていること。</t>
+  </si>
+  <si>
+    <t>ST-SC-003</t>
+  </si>
+  <si>
+    <t>ユーザーがカテゴリ検索をして出てきた商品をカートに入れ、注文を完了するまでの一連の流れが正常に行えるか</t>
+  </si>
+  <si>
+    <t>1. index.html を表示。
+2. カテゴリのプルダウンからインテリアを選択
+3. 表示された商品の中からモダンデスクライトの詳細を表示し、数量1でカートに追加
+4. カートモーダルを表示し、内容（アロマディフューザー x2, 合計8400)を確認。
+5. 「注文手続きへ」をクリック。
+6. 有効な顧客情報を入力。
+7. 「注文を確定する」をクリック。</t>
+  </si>
+  <si>
+    <t>ST-SC-004</t>
+  </si>
+  <si>
     <t>カート操作シナリオ</t>
   </si>
   <si>
@@ -1504,23 +1265,21 @@
   </si>
   <si>
     <t>1. index.html を表示。
-2. 商品Aを3個カートに追加。
-3. 商品Bを2個カートに追加。
+2. アロマディフューザーを3個カートに追加。
+3. モダンデスクライトを2個カートに追加。
 4. カートモーダルを表示。
-5. 商品Aの数量を1に変更。
-6. 商品Bを削除。
-7. カートの内容（商品A x1, 合計1000円）を確認。
+5. アロマディフューザーの数量を1に変更。
+6. モダンデスクライトを削除。
+7. カートの内容（アロマディフューザー x1, 合計4200円）を確認。
 8. 「注文手続きへ」をクリックし、顧客情報を入力して注文を確定する。</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1. カートの数量変更、削除、合計金額の再計算が正しく行われること。
-2. 最終的なカート内容（商品A x1）で注文が正常に完了すること。
-3. テスト後に商品Aの在庫が1減り、商品Bの在庫は変化しないこと。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ST-SC-003</t>
+2. 最終的なカート内容（アロマディフューザー x1）で注文が正常に完了すること。
+3. テスト後にアロマディフューザーの在庫が1減り、モダンデスクライトの在庫は変化しないこと。</t>
+  </si>
+  <si>
+    <t>ST-SC-005</t>
   </si>
   <si>
     <t>注文キャンセルシナリオ</t>
@@ -1539,13 +1298,12 @@
   </si>
   <si>
     <t>1. 顧客情報入力モーダルが閉じられること。
-2. カートの中身はキャンセル前と変わらないこと (商品A x2, 商品B x1)。
+2. カートの中身はキャンセル前と変わらないこと (アロマディフューザー x2, モダンデスクライト x1)。
 3. カートアイコンのバッジも変わらないこと (3)。
 4. DBの在庫数も変化しないこと。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ST-SC-004</t>
+  </si>
+  <si>
+    <t>ST-SC-006</t>
   </si>
   <si>
     <t>在庫切れ考慮シナリオ</t>
@@ -1554,14 +1312,13 @@
     <t>カートに追加後、注文確定前に在庫切れになった場合の挙動を確認する</t>
   </si>
   <si>
-    <t>商品Bの在庫が1個</t>
-  </si>
-  <si>
-    <t>1. 商品Bを1個カートに追加する。
-2. (別の手段で) 商品Bの在庫を0にする。
+    <t>モダンデスクライトの在庫が1個</t>
+  </si>
+  <si>
+    <t>1. モダンデスクライトを1個カートに追加する。
+2. (別の手段で) モダンデスクライトの在庫を0にする。
 3. カートモーダルから注文手続きに進み、顧客情報を入力。
 4. 「注文を確定する」ボタンをクリックする。</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1. 注文確定時にサーバー側で在庫不足が検知され、注文が失敗すること (OrderService の在庫チェック)。
@@ -1571,7 +1328,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ST-SC-005</t>
+    <t>ST-SC-007</t>
   </si>
   <si>
     <t>複数回購入シナリオ</t>
@@ -1584,16 +1341,14 @@
   </si>
   <si>
     <t>1. ST-SC-001 の注文が完了し、カートが空になっていることを確認。
-2. 再度 index.html から商品Bを1個カートに追加。
+2. 再度 index.html からモダンデスクライトを1個カートに追加。
 3. カートモーダルから注文手続きに進み、別の顧客情報（または同じ情報）を入力して注文を確定する。</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1. 2回目の注文が正常に完了し、完了モーダルが表示されること。
 2. 1回目の注文とは異なる注文番号が払い出されること。
-3. テスト後にカートが空になり、商品Bの在庫がさらに1減っていること。
+3. テスト後にカートが空になり、モダンデスクライトの在庫がさらに1減っていること。
 4. DBには1回目と2回目の両方の注文データが記録されていること。</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>5. その他（非機能観点）</t>
@@ -1641,96 +1396,79 @@
     <t>ST-NF-003</t>
   </si>
   <si>
-    <t>顧客情報入力欄にスクリプトを埋め込もうとした場合の挙動 (簡易XSS確認)</t>
-  </si>
-  <si>
-    <t>顧客情報入力モーダル</t>
-  </si>
-  <si>
-    <t>1. 名前の入力欄に &lt;script&gt;alert('XSS')&lt;/script&gt; と入力する。
-2. 他の項目は有効な値を入力する。
-3. 「注文を確定する」ボタンをクリックする (またはAPIを直接送信)。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. スクリプトが実行されず、アラートが表示されないこと。
-2. 入力されたスクリプトが無害化されてDBに保存されるか、バリデーションエラーとなること。
-3. (もし入力値が画面に再表示される場合) スクリプトがエスケープ処理されて表示されること。</t>
-    <phoneticPr fontId="2"/>
+    <t>商品一覧表示</t>
+  </si>
+  <si>
+    <t>性能 (観点)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="游ゴシック"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大量の商品データが存在する場合でも、商品一覧API (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/api/products</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="游ゴシック"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) の応答時間が許容範囲内であること</t>
+    </r>
+  </si>
+  <si>
+    <t>大量商品データ</t>
+  </si>
+  <si>
+    <t>1. (性能テストツールを使用) 商品一覧APIにリクエストを送信し、応答時間を測定する。</t>
+  </si>
+  <si>
+    <t>1. 平均応答時間、90パーセンタイル応答時間が事前に定めた目標値の5秒以下であること。</t>
   </si>
   <si>
     <t>ST-NF-004</t>
   </si>
   <si>
-    <t>商品一覧表示</t>
-  </si>
-  <si>
-    <t>性能 (観点)</t>
-  </si>
-  <si>
-    <r>
-      <t>大量の商品データが存在する場合でも、商品一覧API (</t>
+    <t>注文処理</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="游ゴシック"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多数のユーザーが同時に注文処理 (</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/api/products</t>
+      <t>/api/orders</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF333333"/>
         <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) の応答時間が許容範囲内であること</t>
-    </r>
-  </si>
-  <si>
-    <t>大量商品データ</t>
-  </si>
-  <si>
-    <t>1. (性能テストツールを使用) 商品一覧APIにリクエストを送信し、応答時間を測定する。</t>
-  </si>
-  <si>
-    <t>1. 平均応答時間、90パーセンタイル応答時間が事前に定めた目標値2秒以下であること。</t>
-  </si>
-  <si>
-    <t>ST-NF-005</t>
-  </si>
-  <si>
-    <t>注文処理</t>
-  </si>
-  <si>
-    <r>
-      <t>多数のユーザーが同時に注文処理 (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/api/orders</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>) を実行した場合でも、処理が遅延せず、エラーが発生しにくいこと</t>
@@ -1745,7 +1483,7 @@
 3.同時アクセス数が100~200件でも問題なくサービス提供が可能</t>
   </si>
   <si>
-    <t>ST-NF-006</t>
+    <t>ST-NF-005</t>
   </si>
   <si>
     <t>ログ出力</t>
@@ -1763,14 +1501,14 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1. 処理の開始・終了、重要なパラメータ（注文ID、顧客IDなど）、エラー発生時の詳細情報などがログに出力されていること。</t>
+    <t>1. 処理の開始・終了、重要なパラメータ（注文IDなど）、エラー発生時の詳細情報などがログに出力されていること。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1832,34 +1570,40 @@
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="游ゴシック"/>
-      <charset val="1"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF242424"/>
       <name val="Yu Gothic"/>
-      <charset val="1"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
-      <name val="Aptos Narrow"/>
+      <name val="游ゴシック"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
+      <name val="游ゴシック"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1867,8 +1611,24 @@
       <color rgb="FF333333"/>
       <name val="Aptos Narrow"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1889,13 +1649,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1944,7 +1716,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1990,46 +1762,49 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2366,615 +2141,621 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E5E3F2-C487-43AA-A38B-87CA8BE4C9AD}">
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:XFD61"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.08203125" style="1" customWidth="1"/>
     <col min="2" max="3" width="17.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="35.25" style="5" customWidth="1"/>
     <col min="7" max="7" width="54.25" style="5" customWidth="1"/>
-    <col min="8" max="8" width="59.375" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="8.625" style="1"/>
+    <col min="8" max="8" width="59.33203125" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6" ht="18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6" ht="18">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:6" ht="18">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:6" ht="18">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:6" ht="18">
+      <c r="A5" s="22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:6" ht="18">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:6" ht="18">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="F7" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18">
       <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18">
       <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18">
       <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18">
       <c r="B11" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:6" ht="18">
       <c r="B12" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:6" ht="18">
       <c r="A13" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18">
       <c r="A15" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="18">
       <c r="A17" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="18">
       <c r="A18" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="45.75">
-      <c r="A19" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="72">
+      <c r="A19" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="87" customHeight="1">
+      <c r="A20" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="87" customHeight="1">
-      <c r="A20" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30.75">
-      <c r="A21" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="36">
+      <c r="A21" s="24" t="s">
+        <v>35</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="30.75">
-      <c r="A22" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="36">
+      <c r="A22" s="24" t="s">
+        <v>40</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="30.75">
-      <c r="A23" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="36">
+      <c r="A23" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="30.75">
-      <c r="A24" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="36">
+      <c r="A24" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="30.75">
-      <c r="A25" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="36">
+      <c r="A25" s="24" t="s">
+        <v>51</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="30.75">
-      <c r="A26" s="15" t="s">
+    </row>
+    <row r="26" spans="1:8" ht="36">
+      <c r="A26" s="24" t="s">
         <v>53</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E26" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" s="9" t="s">
+      <c r="H26" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="36">
+      <c r="A27" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="H26" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="30.75">
-      <c r="A27" s="15" t="s">
-        <v>57</v>
-      </c>
       <c r="B27" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" s="9" t="s">
+    </row>
+    <row r="28" spans="1:8" ht="36">
+      <c r="A28" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="H27" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="30.75">
-      <c r="A28" s="15" t="s">
-        <v>61</v>
-      </c>
       <c r="B28" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E28" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" s="9" t="s">
+    </row>
+    <row r="29" spans="1:8" ht="36">
+      <c r="A29" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="H28" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="30.75">
-      <c r="A29" s="15" t="s">
-        <v>65</v>
-      </c>
       <c r="B29" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E29" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" s="9" t="s">
+    </row>
+    <row r="30" spans="1:8" ht="54">
+      <c r="A30" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="H29" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="45.75">
-      <c r="A30" s="15" t="s">
-        <v>69</v>
-      </c>
       <c r="B30" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E30" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" s="12" t="s">
+    </row>
+    <row r="31" spans="1:8" ht="72">
+      <c r="A31" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="B31" s="8" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="45.75">
-      <c r="A31" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E31" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G31" s="9" t="s">
+      <c r="H31" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="H31" s="13" t="s">
+    </row>
+    <row r="32" spans="1:8" ht="36">
+      <c r="A32" s="24" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="60.75">
-      <c r="A32" s="8" t="s">
-        <v>77</v>
-      </c>
       <c r="B32" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E32" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F32" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G32" s="9" t="s">
+    </row>
+    <row r="33" spans="1:8" ht="36">
+      <c r="A33" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="B33" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="30.75">
-      <c r="A33" s="8" t="s">
+      <c r="F33" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="9" t="s">
+      <c r="G33" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33" s="9" t="s">
+      <c r="H33" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="H33" s="10" t="s">
+    </row>
+    <row r="34" spans="1:8" ht="72">
+      <c r="A34" s="24" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="30.75">
-      <c r="A34" s="8" t="s">
+      <c r="B34" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="10" t="s">
+      <c r="F34" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="G34" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="H34" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="H34" s="10" t="s">
+    </row>
+    <row r="36" spans="1:8" ht="18">
+      <c r="A36" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="60.75">
-      <c r="A35" s="8" t="s">
+    <row r="37" spans="1:8" ht="18">
+      <c r="A37" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="72">
+      <c r="A38" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="9" t="s">
+      <c r="B38" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="C38" s="17"/>
+      <c r="D38" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="F38" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="G38" s="19" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="2" t="s">
+      <c r="H38" s="19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="60.75">
-      <c r="A39" s="8" t="s">
+    <row r="39" spans="1:8" ht="72">
+      <c r="A39" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" s="9" t="s">
+      <c r="F39" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="G39" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="H39" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="H39" s="10" t="s">
+    </row>
+    <row r="40" spans="1:8" ht="54">
+      <c r="A40" s="25" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="60.75">
-      <c r="A40" s="8" t="s">
+      <c r="B40" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E40" s="9" t="s">
+      <c r="F40" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="G40" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="H40" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="H40" s="10" t="s">
+    </row>
+    <row r="41" spans="1:8" ht="90">
+      <c r="A41" s="25" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="45.75">
-      <c r="A41" s="8" t="s">
+      <c r="B41" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>109</v>
@@ -2982,143 +2763,143 @@
       <c r="F41" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="G41" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="H41" s="15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="21" customFormat="1" ht="76.5">
-      <c r="A42" s="19" t="s">
+    <row r="42" spans="1:8" ht="72">
+      <c r="A42" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B42" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E42" s="20" t="s">
+      <c r="B42" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="20" t="s">
+      <c r="F42" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G42" s="20" t="s">
+      <c r="G42" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="H42" s="20" t="s">
+      <c r="H42" s="10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="76.5">
-      <c r="A43" s="8" t="s">
+    <row r="43" spans="1:8" ht="90">
+      <c r="A43" s="25" t="s">
         <v>118</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E43" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F43" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="G43" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H43" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="G43" s="9" t="s">
+    </row>
+    <row r="44" spans="1:8" ht="72">
+      <c r="A44" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="H43" s="18" t="s">
+      <c r="B44" s="8" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="60.75">
-      <c r="A44" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>119</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E44" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F44" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="G44" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="H44" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="H44" s="10" t="s">
+    </row>
+    <row r="45" spans="1:8" ht="72">
+      <c r="A45" s="25" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="76.5">
-      <c r="A45" s="8" t="s">
-        <v>129</v>
-      </c>
       <c r="B45" s="8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E45" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F45" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="G45" s="10" t="s">
         <v>131</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>127</v>
       </c>
       <c r="H45" s="10" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="45.75">
-      <c r="A46" s="8" t="s">
+    <row r="46" spans="1:8" ht="54">
+      <c r="A46" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E46" s="9" t="s">
+      <c r="F46" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="G46" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="H46" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="H46" s="10" t="s">
+    </row>
+    <row r="47" spans="1:8" ht="72">
+      <c r="A47" s="25" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="45.75">
-      <c r="A47" s="8" t="s">
+      <c r="B47" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>134</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>140</v>
@@ -3133,814 +2914,742 @@
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="21" customFormat="1" ht="76.5">
-      <c r="A48" s="23" t="s">
+    <row r="48" spans="1:8" ht="90">
+      <c r="A48" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="B48" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E48" s="24" t="s">
+      <c r="B48" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="F48" s="24" t="s">
+      <c r="F48" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G48" s="20" t="s">
+      <c r="G48" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="H48" s="20" t="s">
+      <c r="H48" s="10" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="28" customFormat="1" ht="76.5">
+    <row r="49" spans="1:8" ht="108">
       <c r="A49" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="B49" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E49" s="26" t="s">
+      <c r="B49" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="F49" s="26" t="s">
+      <c r="F49" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G49" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="G49" s="27" t="s">
+      <c r="H49" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="H49" s="27" t="s">
+    </row>
+    <row r="50" spans="1:8" ht="62.25" customHeight="1">
+      <c r="A50" s="28" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="60.75">
-      <c r="A50" s="8" t="s">
+      <c r="B50" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="C50" s="27"/>
+      <c r="D50" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="F50" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G50" s="10" t="s">
+      <c r="F50" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="H50" s="10" t="s">
+      <c r="G50" s="19" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="76.5">
-      <c r="A51" s="8" t="s">
+      <c r="H50" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E51" s="9" t="s">
+    </row>
+    <row r="52" spans="1:8" ht="18">
+      <c r="A52" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F51" s="9" t="s">
+    </row>
+    <row r="53" spans="1:8" ht="18">
+      <c r="A53" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="69" customHeight="1">
+      <c r="A54" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="G51" s="10" t="s">
+      <c r="B54" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="H51" s="10" t="s">
+      <c r="C54" s="8"/>
+      <c r="D54" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="9" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="91.5">
-      <c r="A52" s="8" t="s">
+      <c r="F54" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E52" s="9" t="s">
+      <c r="G54" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="F52" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G52" s="9" t="s">
+      <c r="H54" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="H52" s="10" t="s">
+    </row>
+    <row r="55" spans="1:8" ht="101.25" customHeight="1">
+      <c r="A55" s="8" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="45.75">
-      <c r="A53" s="19" t="s">
+      <c r="B55" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="C55" s="8"/>
+      <c r="D55" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19" t="s">
+      <c r="F55" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="E53" s="20" t="s">
+      <c r="G55" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="F53" s="20" t="s">
+      <c r="H55" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="G53" s="20" t="s">
+    </row>
+    <row r="56" spans="1:8" ht="126.75" customHeight="1">
+      <c r="A56" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="H53" s="20" t="s">
+      <c r="B56" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="9" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="2" t="s">
+      <c r="F56" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G56" s="10" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="30.75">
+      <c r="H56" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="85.5" customHeight="1">
       <c r="A57" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>178</v>
       </c>
       <c r="F57" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G57" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="G57" s="10" t="s">
+      <c r="H57" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="H57" s="10" t="s">
+    </row>
+    <row r="58" spans="1:8" ht="85.5" customHeight="1">
+      <c r="A58" s="17" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="91.5">
-      <c r="A58" s="8" t="s">
+      <c r="B58" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="F58" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G58" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E58" s="9" t="s">
+      <c r="H58" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="F58" s="9" t="s">
+    </row>
+    <row r="59" spans="1:8" ht="81" customHeight="1">
+      <c r="A59" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="G58" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="H58" s="10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="64.5">
-      <c r="A59" s="8" t="s">
-        <v>188</v>
-      </c>
       <c r="B59" s="8" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E59" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="99" customHeight="1">
+      <c r="A60" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="F59" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="H59" s="22" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="45.75">
-      <c r="A60" s="8" t="s">
-        <v>192</v>
-      </c>
       <c r="B60" s="8" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E60" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="239.25" customHeight="1">
+      <c r="A61" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="F60" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="G60" s="10" t="s">
+      <c r="B61" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="H60" s="10" t="s">
+      <c r="C61" s="8"/>
+      <c r="D61" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" s="9" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" s="28" customFormat="1" ht="60.75">
-      <c r="A61" s="25" t="s">
+      <c r="F61" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B61" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E61" s="26" t="s">
+      <c r="G61" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="F61" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="G61" s="27" t="s">
+      <c r="H61" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="H61" s="27" t="s">
+    </row>
+    <row r="62" spans="1:8" ht="159" customHeight="1">
+      <c r="A62" s="17" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" ht="45.75">
-      <c r="A62" s="8" t="s">
+      <c r="B62" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E62" s="9" t="s">
+      <c r="F62" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="F62" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="G62" s="10" t="s">
+      <c r="G62" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="H62" s="10" t="s">
+      <c r="H62" s="19" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="45.75">
-      <c r="A63" s="8" t="s">
+    <row r="63" spans="1:8" ht="72">
+      <c r="A63" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E63" s="9" t="s">
+      <c r="B63" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="F63" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="G63" s="10" t="s">
+      <c r="F63" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="H63" s="10" t="s">
+      <c r="G63" s="26" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" ht="137.25">
-      <c r="A64" s="8" t="s">
+      <c r="H63" s="19" t="s">
         <v>208</v>
       </c>
+    </row>
+    <row r="64" spans="1:8" ht="108">
+      <c r="A64" s="17" t="s">
+        <v>209</v>
+      </c>
       <c r="B64" s="8" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>210</v>
       </c>
       <c r="F64" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G64" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="G64" s="9" t="s">
+      <c r="H64" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="H64" s="10" t="s">
+    </row>
+    <row r="65" spans="1:8" ht="72">
+      <c r="A65" s="17" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" s="21" customFormat="1" ht="121.5">
-      <c r="A65" s="23" t="s">
+      <c r="B65" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B65" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E65" s="24" t="s">
+      <c r="C65" s="8"/>
+      <c r="D65" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="F65" s="24" t="s">
+      <c r="F65" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="G65" s="20" t="s">
+      <c r="G65" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="H65" s="20" t="s">
+      <c r="H65" s="10" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="21" customFormat="1" ht="76.5">
-      <c r="A66" s="23" t="s">
+    <row r="67" spans="1:8" ht="18">
+      <c r="A67" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B66" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E66" s="24" t="s">
+    </row>
+    <row r="68" spans="1:8" ht="18">
+      <c r="A68" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="157.5" customHeight="1">
+      <c r="A69" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="F66" s="24" t="s">
+      <c r="B69" s="8" t="s">
         <v>221</v>
-      </c>
-      <c r="G66" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="H66" s="20" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" s="21" customFormat="1" ht="30.75">
-      <c r="A67" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="B67" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E67" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="F67" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="G67" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="H67" s="20" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="91.5">
-      <c r="A68" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="H68" s="10" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="60.75">
-      <c r="A69" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>234</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="8" t="s">
-        <v>28</v>
+        <v>222</v>
       </c>
       <c r="E69" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="157.5" customHeight="1">
+      <c r="A70" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="157.5" customHeight="1">
+      <c r="A71" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="195" customHeight="1">
+      <c r="A72" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B72" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="C72" s="8"/>
+      <c r="D72" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E72" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="G69" s="9" t="s">
+      <c r="F72" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="G72" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="H69" s="10" t="s">
+      <c r="H72" s="10" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="2" t="s">
+    <row r="73" spans="1:8" ht="97.5" customHeight="1">
+      <c r="A73" s="8" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="121.5">
-      <c r="A73" s="8" t="s">
+      <c r="B73" s="8" t="s">
         <v>240</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>241</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="F73" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="E73" s="9" t="s">
+      <c r="G73" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="F73" s="9" t="s">
+      <c r="H73" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="G73" s="10" t="s">
+    </row>
+    <row r="74" spans="1:8" ht="106.5" customHeight="1">
+      <c r="A74" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="H73" s="10" t="s">
+      <c r="B74" s="8" t="s">
         <v>246</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="137.25">
-      <c r="A74" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>248</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="8" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="E74" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="G74" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="F74" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G74" s="10" t="s">
+      <c r="H74" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="H74" s="10" t="s">
+    </row>
+    <row r="75" spans="1:8" ht="90">
+      <c r="A75" s="8" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" ht="76.5">
-      <c r="A75" s="8" t="s">
+      <c r="B75" s="8" t="s">
         <v>252</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>253</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="8" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="E75" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="F75" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="F75" s="9" t="s">
+      <c r="G75" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="G75" s="10" t="s">
+      <c r="H75" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="H75" s="10" t="s">
+    </row>
+    <row r="77" spans="1:8" ht="18">
+      <c r="A77" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="76.5">
-      <c r="A76" s="8" t="s">
+    <row r="78" spans="1:8" ht="18">
+      <c r="A78" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="97.5" customHeight="1">
+      <c r="A79" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B79" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="E76" s="9" t="s">
+      <c r="C79" s="8"/>
+      <c r="D79" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E79" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="F76" s="9" t="s">
+      <c r="F79" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G79" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="G76" s="10" t="s">
+      <c r="H79" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="H76" s="10" t="s">
+    </row>
+    <row r="80" spans="1:8" ht="124.5" customHeight="1">
+      <c r="A80" s="8" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" ht="76.5">
-      <c r="A77" s="8" t="s">
+      <c r="B80" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="C80" s="8"/>
+      <c r="D80" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E80" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="E77" s="9" t="s">
+      <c r="F80" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G80" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="F77" s="9" t="s">
+      <c r="H80" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="G77" s="10" t="s">
+    </row>
+    <row r="81" spans="1:8" ht="88.5" customHeight="1">
+      <c r="A81" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="H77" s="10" t="s">
+      <c r="B81" s="11" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="2" t="s">
+      <c r="C81" s="11"/>
+      <c r="D81" s="11" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="97.5" customHeight="1">
-      <c r="A81" s="8" t="s">
+      <c r="E81" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="F81" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E81" s="9" t="s">
+      <c r="G81" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="F81" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G81" s="10" t="s">
+      <c r="H81" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="H81" s="10" t="s">
+    </row>
+    <row r="82" spans="1:8" ht="72.75" customHeight="1">
+      <c r="A82" s="8" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" ht="124.5" customHeight="1">
-      <c r="A82" s="8" t="s">
+      <c r="B82" s="8" t="s">
         <v>276</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>277</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E82" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E82" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G82" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="F82" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G82" s="10" t="s">
+      <c r="H82" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="H82" s="10" t="s">
+    </row>
+    <row r="83" spans="1:8" ht="102" customHeight="1">
+      <c r="A83" s="8" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" ht="113.25" customHeight="1">
-      <c r="A83" s="8" t="s">
+      <c r="B83" s="8" t="s">
         <v>281</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>183</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="8" t="s">
-        <v>170</v>
+        <v>282</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>283</v>
+        <v>82</v>
       </c>
       <c r="G83" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="H83" s="10" t="s">
+      <c r="H83" s="9" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="88.5" customHeight="1">
-      <c r="A84" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="F84" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="G84" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="H84" s="10" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="72.75" customHeight="1">
-      <c r="A85" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G85" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="H85" s="10" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="102" customHeight="1">
-      <c r="A86" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="F86" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G86" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="H86" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8"/>
+    <row r="84" spans="1:8" ht="18"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
